--- a/output/calorimetry/ds.03.ampoule.no.opt/data.xlsx
+++ b/output/calorimetry/ds.03.ampoule.no.opt/data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">H</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t xml:space="preserve">SMAPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMSE</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -936,15 +939,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -952,10 +955,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1367,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>0.024283681763873</v>
+        <v>0.0210302853049309</v>
       </c>
     </row>
     <row r="4">
@@ -1373,6 +1376,14 @@
       </c>
       <c r="B4" t="n">
         <v>0.0163438415539451</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.214155864195739</v>
       </c>
     </row>
   </sheetData>
@@ -1400,18 +1411,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1419,13 +1430,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -1433,13 +1444,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -1447,13 +1458,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -1475,16 +1486,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -1503,13 +1514,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1517,13 +1528,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1531,13 +1542,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1545,13 +1556,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
         <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1559,13 +1570,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1573,13 +1584,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -1587,13 +1598,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -1601,13 +1612,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1615,13 +1626,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1629,13 +1640,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1643,13 +1654,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -1657,13 +1668,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1671,13 +1682,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1685,13 +1696,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -1699,13 +1710,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -1713,13 +1724,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1741,7 +1752,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
